--- a/2021/Day08.xlsx
+++ b/2021/Day08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Financial Modelling World Cup/Advent-of-Code-Excel/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE3530F-9DAF-754F-9729-6FB1ECD03BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107EB9FB-E418-3D4E-A385-10B38E2AA35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-66380" yWindow="-20360" windowWidth="64940" windowHeight="28300" activeTab="1" xr2:uid="{0286F73B-7DEB-7447-A9DB-423A598096A0}"/>
+    <workbookView xWindow="-51200" yWindow="-19040" windowWidth="51200" windowHeight="21100" activeTab="2" xr2:uid="{0286F73B-7DEB-7447-A9DB-423A598096A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="lookup">Lookup!$A$1:$D$11</definedName>
     <definedName name="unique">Lookup!$G$1:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="10000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93CD7B9-7C10-6A4D-9C6E-4DED8BCB301F}">
   <dimension ref="A1:CB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC24" sqref="BC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -58007,11 +58007,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B8010D-7A1E-B942-90AB-E213862694E9}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
